--- a/output/cluster.game_error.json/game.xlsx
+++ b/output/cluster.game_error.json/game.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,9 +435,9 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="28"/>
     <col customWidth="1" max="2" min="2" width="7"/>
-    <col customWidth="1" max="3" min="3" width="24"/>
-    <col customWidth="1" max="4" min="4" width="145"/>
-    <col customWidth="1" max="5" min="5" width="83"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
+    <col customWidth="1" max="4" min="4" width="176"/>
+    <col customWidth="1" max="5" min="5" width="84"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="1">
@@ -467,10 +467,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="270" r="2">
+    <row customHeight="1" ht="15" r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-02 10:52:49.693616</t>
+          <t>2024-12-07 12:15:16.514189</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,34 +480,337 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SafeCallbackWithReturn</t>
+          <t>GameAPI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SafeCallbackWithReturn traceback occurred 
-	...P4\server\Scripts/GameServer\Gm\GmComponent\PlayerGm.lua:1498: attempt to call method 'addPetById' (a nil value)
+          <t>Z1PL1FyPmXGDg09J createEntityLocally init failed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[createEntityLocally]     C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:67</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="360" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-07 12:15:16.514247</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Traceback</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GameEventCallback:onTraceback ...dX_P4\server\Scripts/Entities\SpaceEntities\Creation.lua:173: attempt to index local 'masterEntity' (a nil value)
 stack traceback:
-	...P4\server\Scripts/GameServer\Gm\GmComponent\PlayerGm.lua:1498: in function 'cb'
-	...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:11: in function &lt;...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:10&gt;
+	...dX_P4\server\Scripts/Entities\SpaceEntities\Creation.lua:173: in function 'inheritProps'
+	...dX_P4\server\Scripts/Entities\SpaceEntities\Creation.lua:188: in function 'overrideFunc'
+	C:\__WorldX_P4\server\Engine/Core\Framework\Class.lua:279: in function 'start'
+	C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:61: in function &lt;C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:57&gt;
 	[C]: in function 'xpcall'
-	...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:17: in function '_innerHandle'
-	C:\__WorldX_P4\server\Engine/Core\Server\GmHandler.lua:96: in function 'handle'
-	...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:1203: in function 'execGmMsg'
-	...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:1215: in function 'method'
-	...ities\SpaceEntities\PlayerComponent\MigrateComponent.lua:120: in function 'method'
-	...dX_P4\server\Engine/Core\Server\MsGateGameRpcHandler.lua:130: in function &lt;...dX_P4\server\Engine/Core\Server\MsGateGameRpcHandler.lua:108&gt;
-	C:\__WorldX_P4\server\Engine/Core\Net\HandlerManager.lua:32: in function &lt;C:\__WorldX_P4\server\Engine/Core\Net\HandlerManager.lua:26&gt;
+	C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:57: in function 'createEntityLocally'
+	...rver\Scripts/Entities\SpaceEntities\SpaceClass\Space.lua:664: in function 'createEntity'
+	...pts/Entities\SpaceEntities\SpaceSpawner\SpaceSpawner.lua:465: in function &lt;...pts/Entities\SpaceEntities\SpaceSpawner\SpaceSpawner.lua:424&gt;
+	[C]: in function 'xpcall'
+	..._WorldX_P4\server\Engine/Core\Framework\SafeCallback.lua:11: in function 'SafeCallback'
+	...pts/Entities\SpaceEntities\SpaceSpawner\SpaceSpawner.lua:395: in function '_randomGroupAndCreateEntityCb'
+	...
+	...rver\Scripts/Entities\SpaceEntities\SpaceClass\Space.lua:184: in function 'tick'
+	...cripts/Entities\SpaceEntities\SpaceClass\SingleWorld.lua:161: in function &lt;...cripts/Entities\SpaceEntities\SpaceClass\SingleWorld.lua:160&gt;
+	[C]: in function 'xpcall'
+	C:\__WorldX_P4\server\Engine/Core\Common\TickManager.lua:55: in function 'handler'
+	C:\__WorldX_P4\server\Engine/Core\Timer\TimerManager.lua:173: in function &lt;C:\__WorldX_P4\server\Engine/Core\Timer\TimerManager.lua:165&gt;
 	[C]: in function 'pullIO'
 	C:\__WorldX_P4\server\Engine/Core\Net\Scheduler.lua:12: in function 'poll'
 	C:\__WorldX_P4\server\Engine/Core\Server\Game.lua:498: in function 'start'
 	C:\__WorldX_P4\server\Scripts\main.lua:94: in main chunk
-	[C]: at 0x7ff73d204820</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[_innerHandle]     ...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:20</t>
+	[C]: at 0x7ff7b9704820</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[onTraceback]     ...er\Scripts/Entities\GlobalEntities\GameEventCallback.lua:167</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-07 12:15:16.514547</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SingleWorld</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GameAPI.createEntityLocally failed, ent is nil, props.id = 	Z1PL1FyPmXGDg09J</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[createEntity]     ...rver\Scripts/Entities\SpaceEntities\SpaceClass\Space.lua:666</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:15:26.135232</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=35004, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:16:24.150752</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=35258, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:16:34.891608</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=35373, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:16:35.472275</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=35441, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:16:49.346439</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=35463, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:16:49.938232</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=35533, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:17:19.391921</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=31643, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:17:40.031561</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=31697, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12-07 14:17:40.456708</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>inpsect</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>inspect table to string too long, len=31771, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
         </is>
       </c>
     </row>
